--- a/Master/1709/17年转基因潮霉素鉴定结果.xlsx
+++ b/Master/1709/17年转基因潮霉素鉴定结果.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp/Master/1709/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="101">
   <si>
     <t>A</t>
   </si>
@@ -369,6 +369,41 @@
   </si>
   <si>
     <t>好</t>
+  </si>
+  <si>
+    <t>A1G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1A2G1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,6,7,8,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,4,5,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全</t>
+    <rPh sb="0" eb="1">
+      <t>quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1A2G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6,7,8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5420,6 +5455,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B38"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B15:B17"/>
@@ -5436,14 +5479,6 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5453,20 +5488,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="5" width="7.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="23.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>39</v>
       </c>
@@ -5479,8 +5516,14 @@
       <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -5496,8 +5539,14 @@
       <c r="E2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -5513,8 +5562,14 @@
       <c r="E3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
@@ -5530,8 +5585,14 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -5548,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -5562,7 +5623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
@@ -5579,7 +5640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -5596,7 +5657,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -5610,7 +5671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -5627,7 +5688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -5644,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -5661,7 +5722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>54</v>
       </c>
@@ -5678,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
@@ -5695,7 +5756,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -5709,7 +5770,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>57</v>
       </c>

--- a/Master/1709/17年转基因潮霉素鉴定结果.xlsx
+++ b/Master/1709/17年转基因潮霉素鉴定结果.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="104">
   <si>
     <t>A</t>
   </si>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>4,6,7,8,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +783,7 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:N49"/>
     </sheetView>
   </sheetViews>
@@ -5455,14 +5467,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B38"/>
     <mergeCell ref="A34:A41"/>
     <mergeCell ref="A42:A49"/>
     <mergeCell ref="B15:B17"/>
@@ -5479,6 +5483,14 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5491,7 +5503,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5516,6 +5528,9 @@
       <c r="E1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="G1" s="3" t="s">
         <v>93</v>
       </c>
@@ -5539,6 +5554,9 @@
       <c r="E2" s="3">
         <v>2</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>94</v>
       </c>
@@ -5561,6 +5579,9 @@
       </c>
       <c r="E3" s="3">
         <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>95</v>
